--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rgma-Neo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rgma-Neo1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.742267333333333</v>
+        <v>0.7640236666666667</v>
       </c>
       <c r="H2">
-        <v>5.226802</v>
+        <v>2.292071</v>
       </c>
       <c r="I2">
-        <v>0.02937931807530601</v>
+        <v>0.01297425269119383</v>
       </c>
       <c r="J2">
-        <v>0.02937931807530601</v>
+        <v>0.01297425269119383</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.171693666666666</v>
+        <v>2.507757</v>
       </c>
       <c r="N2">
-        <v>12.515081</v>
+        <v>7.523270999999999</v>
       </c>
       <c r="O2">
-        <v>0.1077921033402881</v>
+        <v>0.07648041298707947</v>
       </c>
       <c r="P2">
-        <v>0.1077921033402881</v>
+        <v>0.07648041298707947</v>
       </c>
       <c r="Q2">
-        <v>7.268205600106889</v>
+        <v>1.915985698249</v>
       </c>
       <c r="R2">
-        <v>65.41385040096199</v>
+        <v>17.243871284241</v>
       </c>
       <c r="S2">
-        <v>0.003166858490040581</v>
+        <v>0.0009922762040212316</v>
       </c>
       <c r="T2">
-        <v>0.003166858490040581</v>
+        <v>0.0009922762040212316</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.742267333333333</v>
+        <v>0.7640236666666667</v>
       </c>
       <c r="H3">
-        <v>5.226802</v>
+        <v>2.292071</v>
       </c>
       <c r="I3">
-        <v>0.02937931807530601</v>
+        <v>0.01297425269119383</v>
       </c>
       <c r="J3">
-        <v>0.02937931807530601</v>
+        <v>0.01297425269119383</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>61.181837</v>
       </c>
       <c r="O3">
-        <v>0.5269577477327286</v>
+        <v>0.6219651214303167</v>
       </c>
       <c r="P3">
-        <v>0.5269577477327286</v>
+        <v>0.6219651214303167</v>
       </c>
       <c r="Q3">
-        <v>35.53170533280822</v>
+        <v>15.58145714604744</v>
       </c>
       <c r="R3">
-        <v>319.785347995274</v>
+        <v>140.233114314427</v>
       </c>
       <c r="S3">
-        <v>0.0154816592828867</v>
+        <v>0.008069532650545986</v>
       </c>
       <c r="T3">
-        <v>0.0154816592828867</v>
+        <v>0.008069532650545986</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.742267333333333</v>
+        <v>0.7640236666666667</v>
       </c>
       <c r="H4">
-        <v>5.226802</v>
+        <v>2.292071</v>
       </c>
       <c r="I4">
-        <v>0.02937931807530601</v>
+        <v>0.01297425269119383</v>
       </c>
       <c r="J4">
-        <v>0.02937931807530601</v>
+        <v>0.01297425269119383</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.13565266666667</v>
+        <v>9.887829999999999</v>
       </c>
       <c r="N4">
-        <v>42.406958</v>
+        <v>29.66349</v>
       </c>
       <c r="O4">
-        <v>0.3652501489269833</v>
+        <v>0.3015544655826039</v>
       </c>
       <c r="P4">
-        <v>0.3652501489269833</v>
+        <v>0.301554465582604</v>
       </c>
       <c r="Q4">
-        <v>24.62808587647955</v>
+        <v>7.554536131976666</v>
       </c>
       <c r="R4">
-        <v>221.652772888316</v>
+        <v>67.99082518778999</v>
       </c>
       <c r="S4">
-        <v>0.01073080030237873</v>
+        <v>0.003912443836626617</v>
       </c>
       <c r="T4">
-        <v>0.01073080030237873</v>
+        <v>0.003912443836626618</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>112.565506</v>
       </c>
       <c r="I5">
-        <v>0.632719166534674</v>
+        <v>0.637176300016926</v>
       </c>
       <c r="J5">
-        <v>0.632719166534674</v>
+        <v>0.637176300016926</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.171693666666666</v>
+        <v>2.507757</v>
       </c>
       <c r="N5">
-        <v>12.515081</v>
+        <v>7.523270999999999</v>
       </c>
       <c r="O5">
-        <v>0.1077921033402881</v>
+        <v>0.07648041298707947</v>
       </c>
       <c r="P5">
-        <v>0.1077921033402881</v>
+        <v>0.07648041298707947</v>
       </c>
       <c r="Q5">
-        <v>156.5296028217762</v>
+        <v>94.095645210014</v>
       </c>
       <c r="R5">
-        <v>1408.766425395986</v>
+        <v>846.860806890126</v>
       </c>
       <c r="S5">
-        <v>0.06820212978448656</v>
+        <v>0.04873150657087376</v>
       </c>
       <c r="T5">
-        <v>0.06820212978448656</v>
+        <v>0.04873150657087376</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>112.565506</v>
       </c>
       <c r="I6">
-        <v>0.632719166534674</v>
+        <v>0.637176300016926</v>
       </c>
       <c r="J6">
-        <v>0.632719166534674</v>
+        <v>0.637176300016926</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>61.181837</v>
       </c>
       <c r="O6">
-        <v>0.5269577477327286</v>
+        <v>0.6219651214303167</v>
       </c>
       <c r="P6">
-        <v>0.5269577477327286</v>
+        <v>0.6219651214303167</v>
       </c>
       <c r="Q6">
         <v>765.2182711016136</v>
       </c>
       <c r="R6">
-        <v>6886.964439914522</v>
+        <v>6886.964439914523</v>
       </c>
       <c r="S6">
-        <v>0.333416266944441</v>
+        <v>0.3963014348125473</v>
       </c>
       <c r="T6">
-        <v>0.333416266944441</v>
+        <v>0.3963014348125473</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>112.565506</v>
       </c>
       <c r="I7">
-        <v>0.632719166534674</v>
+        <v>0.637176300016926</v>
       </c>
       <c r="J7">
-        <v>0.632719166534674</v>
+        <v>0.637176300016926</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.13565266666667</v>
+        <v>9.887829999999999</v>
       </c>
       <c r="N7">
-        <v>42.406958</v>
+        <v>29.66349</v>
       </c>
       <c r="O7">
-        <v>0.3652501489269833</v>
+        <v>0.3015544655826039</v>
       </c>
       <c r="P7">
-        <v>0.3652501489269833</v>
+        <v>0.301554465582604</v>
       </c>
       <c r="Q7">
-        <v>530.3956316878608</v>
+        <v>371.0095290639933</v>
       </c>
       <c r="R7">
-        <v>4773.560685190748</v>
+        <v>3339.085761575941</v>
       </c>
       <c r="S7">
-        <v>0.2311007698057464</v>
+        <v>0.192143358633505</v>
       </c>
       <c r="T7">
-        <v>0.2311007698057464</v>
+        <v>0.1921433586335051</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>20.03840833333333</v>
+        <v>20.601823</v>
       </c>
       <c r="H8">
-        <v>60.115225</v>
+        <v>61.805469</v>
       </c>
       <c r="I8">
-        <v>0.3379015153900201</v>
+        <v>0.3498494472918802</v>
       </c>
       <c r="J8">
-        <v>0.3379015153900201</v>
+        <v>0.3498494472918802</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.171693666666666</v>
+        <v>2.507757</v>
       </c>
       <c r="N8">
-        <v>12.515081</v>
+        <v>7.523270999999999</v>
       </c>
       <c r="O8">
-        <v>0.1077921033402881</v>
+        <v>0.07648041298707947</v>
       </c>
       <c r="P8">
-        <v>0.1077921033402881</v>
+        <v>0.07648041298707947</v>
       </c>
       <c r="Q8">
-        <v>83.59410113424721</v>
+        <v>51.664365841011</v>
       </c>
       <c r="R8">
-        <v>752.3469102082249</v>
+        <v>464.979292569099</v>
       </c>
       <c r="S8">
-        <v>0.03642311506576101</v>
+        <v>0.02675663021218449</v>
       </c>
       <c r="T8">
-        <v>0.03642311506576101</v>
+        <v>0.02675663021218449</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>20.03840833333333</v>
+        <v>20.601823</v>
       </c>
       <c r="H9">
-        <v>60.115225</v>
+        <v>61.805469</v>
       </c>
       <c r="I9">
-        <v>0.3379015153900201</v>
+        <v>0.3498494472918802</v>
       </c>
       <c r="J9">
-        <v>0.3379015153900201</v>
+        <v>0.3498494472918802</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>61.181837</v>
       </c>
       <c r="O9">
-        <v>0.5269577477327286</v>
+        <v>0.6219651214303167</v>
       </c>
       <c r="P9">
-        <v>0.5269577477327286</v>
+        <v>0.6219651214303167</v>
       </c>
       <c r="Q9">
-        <v>408.6622107964806</v>
+        <v>420.1524588962837</v>
       </c>
       <c r="R9">
-        <v>3677.959897168325</v>
+        <v>3781.372130066553</v>
       </c>
       <c r="S9">
-        <v>0.1780598215054009</v>
+        <v>0.2175941539672234</v>
       </c>
       <c r="T9">
-        <v>0.1780598215054009</v>
+        <v>0.2175941539672234</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>20.03840833333333</v>
+        <v>20.601823</v>
       </c>
       <c r="H10">
-        <v>60.115225</v>
+        <v>61.805469</v>
       </c>
       <c r="I10">
-        <v>0.3379015153900201</v>
+        <v>0.3498494472918802</v>
       </c>
       <c r="J10">
-        <v>0.3379015153900201</v>
+        <v>0.3498494472918802</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.13565266666667</v>
+        <v>9.887829999999999</v>
       </c>
       <c r="N10">
-        <v>42.406958</v>
+        <v>29.66349</v>
       </c>
       <c r="O10">
-        <v>0.3652501489269833</v>
+        <v>0.3015544655826039</v>
       </c>
       <c r="P10">
-        <v>0.3652501489269833</v>
+        <v>0.301554465582604</v>
       </c>
       <c r="Q10">
-        <v>283.2559801928389</v>
+        <v>203.70732351409</v>
       </c>
       <c r="R10">
-        <v>2549.30382173555</v>
+        <v>1833.36591162681</v>
       </c>
       <c r="S10">
-        <v>0.1234185788188582</v>
+        <v>0.1054986631124723</v>
       </c>
       <c r="T10">
-        <v>0.1234185788188582</v>
+        <v>0.1054986631124723</v>
       </c>
     </row>
   </sheetData>
